--- a/dimreduction_sample_worked.xlsx
+++ b/dimreduction_sample_worked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlejandroPSJ\Desktop\Desktop\UP\Data Mining\dim_reduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6C5838-EE2C-4BA7-8EAA-F7D241E381F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4EECE-BE85-4AC0-BC5A-DEB62AB846B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="77">
   <si>
     <t>Ene17</t>
   </si>
@@ -249,6 +249,21 @@
   <si>
     <t>Soya</t>
   </si>
+  <si>
+    <t>soya + patrones que no eran tan evidentes (plata, cobre)</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>economy-driven (industriales) + oro (negativo vs economia)</t>
+  </si>
+  <si>
+    <t>maiz tiene comportamient propio</t>
+  </si>
+  <si>
+    <t>commodities agricolas + niquel</t>
+  </si>
 </sst>
 </file>
 
@@ -256,9 +271,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,6 +283,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -338,14 +359,18 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -363,6 +388,2440 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>High value vs Oro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dimreduction_sample!$G$2:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1191.09318181818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1234.3575000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1231.0934782608699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1267.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1246.8086956521699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1260.2568181818201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1236.2214285714299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1282.44565217391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1314.9785714285699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1279.51363636364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1282.2840909090901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1263.9047619047601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1330.1369565217401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1331.5250000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1324.62045454545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1334.2214285714299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1303.3239130434799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1281.56666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1238.5250000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1201.0913043478299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1198.4725000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1215.3934782608701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1220.94545454545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1251.43333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1291.3065217391299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1320.0650000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1300.8976190476201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1285.46818181818</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1283.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1359.0425</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1412.97826086957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1499.0250000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1511.31428571429</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1494.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1470.0166666666701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1480.1977272727299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1559.0347826087</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1597.1025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1591.9272727272701</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1682.72272727273</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1716.6119047619</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1732.21818181818</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1843.3130434782599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1968.0309523809501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1922.21363636364</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1900.2750000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1863.49285714286</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1859.6478260869601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1868.13333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dimreduction_sample!$AN$2:$AN$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>-0.62388636419307431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3618497352637437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41892584176599035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27283087519974708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.51853213557402178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.46432959883455666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.63805261115938561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.4136370030012424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.26684719883777774</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.42153375913652014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.40881039579354084</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.5746193578254285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.28526958806596414</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.36528479319280405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.39945612744475378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.35037557443157052</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.44084161225830598</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.47976154981288571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.69772602362451153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.89529299951220453</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0108173572972463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.92580929101360554</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.95083605007866157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.82122609424310999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.60330710769314044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.51120815220838511</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.63230743798606126</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.70447968580374798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.77010659235435397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.54972014580829121</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.31930042728063446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2295189474110265E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26681569501257507</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1492228621924834</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9771607451266979E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7123057271994506E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33748088256729702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40487124216751952</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.5322774408731974E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14956853694886951</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41133334716645459</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.6676753461993914</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3470301052246705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6267356855084039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.336228971325756</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0476957676093051</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9400106010187557</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0874579892138065</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2409873747513727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0C4-425F-AB78-9831CFEC28EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396243648"/>
+        <c:axId val="396246600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396243648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396246600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396246600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396243648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>High value vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> Plata</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dimreduction_sample!$H$2:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>16.857045454545499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.939499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.619565217391301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.055499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.7686956521739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.931136363636401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.951739130434799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.444761904761901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.941363636363601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.984772727272698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.176904761904801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.466090909090902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.648380952381</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.492739130434799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.5414285714286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.7374090909091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.987043478260899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.285</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.5967391304348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.361045454545501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.772285714285699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.6193043478261</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.8146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.3030476190476</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.0529090909091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.6586086956522</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.036099999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.7708260869565</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.2239545454546</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.170666666666701</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.645260869565199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.157095238095199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.1926818181818</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.97</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.880299999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.884136363636401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.0799545454545</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.288761904761898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.7127272727273</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.5337391304348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.002904761904801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.773499999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.230454545454499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24.045238095238101</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.0394782608696</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.904095238095199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dimreduction_sample!$AN$2:$AN$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>-0.62388636419307431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3618497352637437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41892584176599035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27283087519974708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.51853213557402178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.46432959883455666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.63805261115938561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.4136370030012424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.26684719883777774</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.42153375913652014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.40881039579354084</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.5746193578254285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.28526958806596414</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.36528479319280405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.39945612744475378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.35037557443157052</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.44084161225830598</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.47976154981288571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.69772602362451153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.89529299951220453</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0108173572972463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.92580929101360554</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.95083605007866157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.82122609424310999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.60330710769314044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.51120815220838511</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.63230743798606126</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.70447968580374798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.77010659235435397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.54972014580829121</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.31930042728063446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2295189474110265E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26681569501257507</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1492228621924834</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9771607451266979E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7123057271994506E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33748088256729702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40487124216751952</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.5322774408731974E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14956853694886951</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41133334716645459</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.6676753461993914</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3470301052246705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6267356855084039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.336228971325756</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0476957676093051</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9400106010187557</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0874579892138065</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2409873747513727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEF5-4F4E-82E7-BCB43C9AF4EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="627781080"/>
+        <c:axId val="627782720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="627781080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627782720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="627782720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627781080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>591910</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>265339</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>106136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CC192A-5A4C-40A9-BE25-BFB7B3DE9786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>591910</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>265339</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1C76E6-5EC4-4598-AE7E-86A6C580E29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP71"/>
+  <dimension ref="A1:AP81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="AM72" sqref="AM72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7979,63 +10438,63 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="C56" s="1">
-        <f>CORREL($B$2:$B$50,C$2:C$50)</f>
+        <f t="shared" ref="C56:Q56" si="25">CORREL($B$2:$B$50,C$2:C$50)</f>
         <v>-0.42331768072642223</v>
       </c>
       <c r="D56" s="1">
-        <f>CORREL($B$2:$B$50,D$2:D$50)</f>
+        <f t="shared" si="25"/>
         <v>-0.20035161880544824</v>
       </c>
       <c r="E56" s="1">
-        <f>CORREL($B$2:$B$50,E$2:E$50)</f>
+        <f t="shared" si="25"/>
         <v>0.14719044585060193</v>
       </c>
       <c r="F56" s="1">
-        <f>CORREL($B$2:$B$50,F$2:F$50)</f>
+        <f t="shared" si="25"/>
         <v>-0.16850194187274836</v>
       </c>
       <c r="G56" s="1">
-        <f>CORREL($B$2:$B$50,G$2:G$50)</f>
+        <f t="shared" si="25"/>
         <v>0.29849830265918958</v>
       </c>
       <c r="H56" s="1">
-        <f>CORREL($B$2:$B$50,H$2:H$50)</f>
+        <f t="shared" si="25"/>
         <v>-4.5626362682948049E-2</v>
       </c>
       <c r="I56" s="1">
-        <f>CORREL($B$2:$B$50,I$2:I$50)</f>
+        <f t="shared" si="25"/>
         <v>-0.24901378111770819</v>
       </c>
       <c r="J56" s="1">
-        <f>CORREL($B$2:$B$50,J$2:J$50)</f>
+        <f t="shared" si="25"/>
         <v>-7.8974852294540918E-2</v>
       </c>
       <c r="K56" s="1">
-        <f>CORREL($B$2:$B$50,K$2:K$50)</f>
+        <f t="shared" si="25"/>
         <v>0.3988068791765409</v>
       </c>
       <c r="L56" s="1">
-        <f>CORREL($B$2:$B$50,L$2:L$50)</f>
+        <f t="shared" si="25"/>
         <v>5.1800054177050539E-2</v>
       </c>
       <c r="M56" s="1">
-        <f>CORREL($B$2:$B$50,M$2:M$50)</f>
+        <f t="shared" si="25"/>
         <v>0.48318492316493694</v>
       </c>
       <c r="N56" s="1">
-        <f>CORREL($B$2:$B$50,N$2:N$50)</f>
+        <f t="shared" si="25"/>
         <v>2.5647969047954761E-2</v>
       </c>
       <c r="O56" s="1">
-        <f>CORREL($B$2:$B$50,O$2:O$50)</f>
+        <f t="shared" si="25"/>
         <v>-0.28002959130724075</v>
       </c>
       <c r="P56" s="1">
-        <f>CORREL($B$2:$B$50,P$2:P$50)</f>
+        <f t="shared" si="25"/>
         <v>-9.1004469625716053E-2</v>
       </c>
       <c r="Q56" s="1">
-        <f>CORREL($B$2:$B$50,Q$2:Q$50)</f>
+        <f t="shared" si="25"/>
         <v>0.19112729816026472</v>
       </c>
       <c r="AK56" t="s">
@@ -8064,59 +10523,59 @@
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ref="D57:Q57" si="25">CORREL($C$2:$C$50,D$2:D$50)</f>
+        <f t="shared" ref="D57:Q57" si="26">CORREL($C$2:$C$50,D$2:D$50)</f>
         <v>0.58470966198165075</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.9942397908639843E-2</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.8515702649554977E-2</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.17736328421394904</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.45795606078882689</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.3220975619290523E-2</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.4587773362879234E-3</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.17436824368141748</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.32939527207850727</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.28233797849085651</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25858124489187662</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.53301087738507702</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.52600153526192484</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.13166934255542234</v>
       </c>
       <c r="AK57" s="1">
@@ -8145,63 +10604,63 @@
         <v>-0.20035161880544824</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" ref="C58:Q58" si="26">CORREL($D$2:$D$50,C$2:C$50)</f>
+        <f t="shared" ref="C58:Q58" si="27">CORREL($D$2:$D$50,C$2:C$50)</f>
         <v>0.58470966198165075</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.24731986068216E-2</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.24446116355211392</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.52412207128158994</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.58967060745416433</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.14816905495911253</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.23105076606308189</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-3.9374584365127162E-2</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.60361232645338714</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.15680343495057344</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.13326062460832572</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.50461923408321396</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.51553052352918838</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.7552895366096362E-2</v>
       </c>
     </row>
@@ -8214,63 +10673,63 @@
         <v>0.14719044585060193</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C59:Q59" si="27">CORREL($E$2:$E$50,C$2:C$50)</f>
+        <f t="shared" ref="C59:Q59" si="28">CORREL($E$2:$E$50,C$2:C$50)</f>
         <v>4.9942397908639843E-2</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.24731986068216E-2</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.60679653955002077</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.18165209832530704</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.50505101426302945</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.4458072476994806</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.66870643743756042</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.44235881375435004</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.34364546282761443</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.41324789741547857</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.34257304674106193</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.68653368403725035</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.67693571793705842</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.70680602582097918</v>
       </c>
     </row>
@@ -8283,63 +10742,63 @@
         <v>-0.16850194187274836</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ref="C60:Q60" si="28">CORREL($F$2:$F$50,C$2:C$50)</f>
+        <f t="shared" ref="C60:Q60" si="29">CORREL($F$2:$F$50,C$2:C$50)</f>
         <v>6.8515702649554977E-2</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.24446116355211392</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.60679653955002077</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.51065043968428725</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.6446932953593121E-2</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.6697652196358429</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.83657984084513248</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.2110398687450673</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.5343244191207237</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.9774888841497157E-2</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.10274225124916288</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.33594612878721453</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.36576528784294327</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.51274574099633607</v>
       </c>
     </row>
@@ -8352,63 +10811,63 @@
         <v>0.29849830265918958</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61:Q61" si="29">CORREL($G$2:$G$50,C$2:C$50)</f>
+        <f t="shared" ref="C61:Q61" si="30">CORREL($G$2:$G$50,C$2:C$50)</f>
         <v>0.17736328421394904</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.52412207128158994</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.18165209832530704</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.51065043968428725</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.80411914734821988</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.56978649650789748</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.49426211601867431</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.58750808602684357</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.60772157521050896</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.33778464198621755</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.31005635301947609</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.33922220752936261</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.37353572438700622</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.10722110009958985</v>
       </c>
     </row>
@@ -8421,63 +10880,63 @@
         <v>-4.5626362682948049E-2</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62:Q62" si="30">CORREL($H$2:$H$50,C$2:C$50)</f>
+        <f t="shared" ref="C62:Q62" si="31">CORREL($H$2:$H$50,C$2:C$50)</f>
         <v>0.45795606078882689</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.58967060745416433</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.50505101426302945</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-6.6446932953593121E-2</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.80411914734821988</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.15788936129541231</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-8.9128503584856869E-2</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.52083482843450957</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.34316159634081095</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.22658083006545685</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.40173445568442961</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.70876681531250274</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.67467559824410106</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.35072779923093556</v>
       </c>
     </row>
@@ -8490,63 +10949,63 @@
         <v>-0.24901378111770819</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" ref="C63:Q63" si="31">CORREL($I$2:$I$50,C$2:C$50)</f>
+        <f t="shared" ref="C63:Q63" si="32">CORREL($I$2:$I$50,C$2:C$50)</f>
         <v>4.3220975619290523E-2</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.14816905495911253</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.4458072476994806</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.6697652196358429</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.56978649650789748</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.15788936129541231</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.87588339500525114</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.15671387453080893</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.52820704515592465</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.36010555930539317</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.14847986650125256</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.26718883059517318</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.24856282371071117</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.31930197010927758</v>
       </c>
     </row>
@@ -8559,67 +11018,67 @@
         <v>-7.8974852294540918E-2</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" ref="C64:Q64" si="32">CORREL($J$2:$J$50,C$2:C$50)</f>
+        <f t="shared" ref="C64:Q64" si="33">CORREL($J$2:$J$50,C$2:C$50)</f>
         <v>3.4587773362879234E-3</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.23105076606308189</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.66870643743756042</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.83657984084513248</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.49426211601867431</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-8.9128503584856869E-2</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.87588339500525114</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.10395413440055719</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.56189826702423762</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.10121416410017944</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.901545603691374E-2</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.32089084369684251</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.32443912979741757</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.45528747433795252</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -8628,67 +11087,67 @@
         <v>0.3988068791765409</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:Q65" si="33">CORREL($K$2:$K$50,C$2:C$50)</f>
+        <f t="shared" ref="C65:Q65" si="34">CORREL($K$2:$K$50,C$2:C$50)</f>
         <v>-0.17436824368141748</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-3.9374584365127162E-2</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.44235881375435004</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.2110398687450673</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.58750808602684357</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.52083482843450957</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.15671387453080893</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.10395413440055719</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.14167545165817386</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.53362587820381824</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.47437583974215342</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.27150978326298192</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.32251898690039932</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.40376324192956298</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -8697,67 +11156,67 @@
         <v>5.1800054177050539E-2</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:Q66" si="34">CORREL($L$2:$L$50,C$2:C$50)</f>
+        <f t="shared" ref="C66:Q66" si="35">CORREL($L$2:$L$50,C$2:C$50)</f>
         <v>-0.32939527207850727</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.60361232645338714</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.34364546282761443</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.5343244191207237</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.60772157521050896</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.34316159634081095</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.52820704515592465</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.56189826702423762</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.14167545165817386</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.13249773064179945</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5.5940075608427037E-2</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-5.2302882302404721E-2</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.11059449466587064</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.26320171122818931</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -8766,67 +11225,67 @@
         <v>0.48318492316493694</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:Q67" si="35">CORREL($M$2:$M$50,C$2:C$50)</f>
+        <f t="shared" ref="C67:Q67" si="36">CORREL($M$2:$M$50,C$2:C$50)</f>
         <v>-0.28233797849085651</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.15680343495057344</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.41324789741547857</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.9774888841497157E-2</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.33778464198621755</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.22658083006545685</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.36010555930539317</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.10121416410017944</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.53362587820381824</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.13249773064179945</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.45647071062624639</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.13430837924241659</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.26713141336193469</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.58114168195174498</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -8835,67 +11294,67 @@
         <v>2.5647969047954761E-2</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ref="C68:Q68" si="36">CORREL($N$2:$N$50,C$2:C$50)</f>
+        <f t="shared" ref="C68:Q68" si="37">CORREL($N$2:$N$50,C$2:C$50)</f>
         <v>0.25858124489187662</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.13326062460832572</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.34257304674106193</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.10274225124916288</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.31005635301947609</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.40173445568442961</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-0.14847986650125256</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-3.901545603691374E-2</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.47437583974215342</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.5940075608427037E-2</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.45647071062624639</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.52874599159288271</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.63308875412998133</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.55964357563455036</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -8904,67 +11363,67 @@
         <v>-0.28002959130724075</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:Q69" si="37">CORREL($O$2:$O$50,C$2:C$50)</f>
+        <f t="shared" ref="C69:Q69" si="38">CORREL($O$2:$O$50,C$2:C$50)</f>
         <v>0.53301087738507702</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.50461923408321396</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.68653368403725035</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.33594612878721453</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.33922220752936261</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.70876681531250274</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.26718883059517318</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.32089084369684251</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.27150978326298192</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-5.2302882302404721E-2</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.13430837924241659</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.52874599159288271</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.8930115671276776</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.56106656181426828</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -8973,67 +11432,67 @@
         <v>-9.1004469625716053E-2</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ref="C70:Q70" si="38">CORREL($P$2:$P$50,C$2:C$50)</f>
+        <f t="shared" ref="C70:Q70" si="39">CORREL($P$2:$P$50,C$2:C$50)</f>
         <v>0.52600153526192484</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.51553052352918838</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.67693571793705842</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.36576528784294327</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.37353572438700622</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.67467559824410106</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.24856282371071117</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.32443912979741757</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.32251898690039932</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.11059449466587064</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.26713141336193469</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.63308875412998133</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.8930115671276776</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.78179906109767983</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -9042,69 +11501,382 @@
         <v>0.19112729816026472</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ref="C71:Q71" si="39">CORREL($Q$2:$Q$50,C$2:C$50)</f>
+        <f t="shared" ref="C71:Q71" si="40">CORREL($Q$2:$Q$50,C$2:C$50)</f>
         <v>0.13166934255542234</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>9.7552895366096362E-2</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.70680602582097918</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.51274574099633607</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.10722110009958985</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.35072779923093556</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.31930197010927758</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.45528747433795252</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.40376324192956298</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.26320171122818931</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.58114168195174498</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.55964357563455036</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.56106656181426828</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.78179906109767983</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.99999999999999978</v>
       </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" t="s">
+        <v>59</v>
+      </c>
+      <c r="L75" t="s">
+        <v>60</v>
+      </c>
+      <c r="M75" t="s">
+        <v>61</v>
+      </c>
+      <c r="N75" t="s">
+        <v>62</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6.7586778744198397E-3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.17780783351945201</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.17446886213085899</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.354879422288229</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.16601360982452901</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.19444546170754201</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0.33021017500996203</v>
+      </c>
+      <c r="I76" s="1">
+        <v>9.3153258449072796E-2</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.15384287269392299</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.22221296844967101</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1.15994145077056E-2</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.18386229386696301</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.286006820789098</v>
+      </c>
+      <c r="O76" s="10">
+        <v>0.38433855930736399</v>
+      </c>
+      <c r="P76" s="10">
+        <v>0.41129406769674598</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>0.35101153649198202</v>
+      </c>
+      <c r="R76" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6.8998981675277501E-2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.100678127514856</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.25823838066865501</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-0.181236743642953</v>
+      </c>
+      <c r="F77" s="10">
+        <v>-0.39416304199807201</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0.39608784183722001</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.22852701950665699</v>
+      </c>
+      <c r="I77" s="10">
+        <v>-0.40132635898541202</v>
+      </c>
+      <c r="J77" s="10">
+        <v>-0.418611537646563</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.130546961760202</v>
+      </c>
+      <c r="L77" s="10">
+        <v>-0.37428103096799498</v>
+      </c>
+      <c r="M77" s="1">
+        <v>6.5505564447123896E-2</v>
+      </c>
+      <c r="N77" s="1">
+        <v>7.68301302601367E-2</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2.1759146731226602E-5</v>
+      </c>
+      <c r="P77" s="1">
+        <v>7.9234805524679205E-3</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>-0.131949462889101</v>
+      </c>
+      <c r="R77" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" s="10">
+        <v>-0.44024638613621903</v>
+      </c>
+      <c r="C78" s="10">
+        <v>0.41963813130259398</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.33163638266666201</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-0.117998486351526</v>
+      </c>
+      <c r="F78" s="1">
+        <v>5.67034140063985E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>-9.3885487069556697E-2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>7.4504463885089606E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.167759266645118</v>
+      </c>
+      <c r="J78" s="1">
+        <v>6.0392790576575303E-2</v>
+      </c>
+      <c r="K78" s="10">
+        <v>-0.36109577558823502</v>
+      </c>
+      <c r="L78" s="1">
+        <v>-0.21453814542889299</v>
+      </c>
+      <c r="M78" s="10">
+        <v>-0.44083230003861801</v>
+      </c>
+      <c r="N78" s="1">
+        <v>-0.115636894428041</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0.19005157063324299</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0.117700347938927</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>-0.15071407689473401</v>
+      </c>
+      <c r="R78" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.32266605385122499</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-0.21217122372946901</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.157426337445598</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.27810361547107698</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-7.2303193960338005E-2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.27563269902390097</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.23787692515964401</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.263606307329881</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.24758056596987299</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.13932610871902901</v>
+      </c>
+      <c r="L79" s="1">
+        <v>-0.13430690543999299</v>
+      </c>
+      <c r="M79" s="1">
+        <v>-0.23881345439774701</v>
+      </c>
+      <c r="N79" s="10">
+        <v>-0.59765587438892498</v>
+      </c>
+      <c r="O79" s="1">
+        <v>-1.11911942158448E-2</v>
+      </c>
+      <c r="P79" s="1">
+        <v>-7.4447594249088297E-2</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>-0.15110301142591701</v>
+      </c>
+      <c r="R79" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R80" s="9"/>
+    </row>
+    <row r="81" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R81" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B56:Q71">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:Q79">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9117,9 +11889,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="AJ2:AL50" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9127,8 +11901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B291361-EF0F-41E7-8923-EFBF0C84A2F0}">
   <dimension ref="A1:AH71"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9412,7 +12186,7 @@
         <v>0.31928073107899207</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:AE50" si="2">(B3-B$52)/B$53</f>
+        <f t="shared" ref="S3:AE36" si="2">(B3-B$52)/B$53</f>
         <v>-1.2647758057299778</v>
       </c>
       <c r="T3">
@@ -13297,7 +16071,7 @@
         <v>0.1655175400801345</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36:AE68" si="3">(H36-H$52)/H$53</f>
+        <f t="shared" ref="Y36:AE50" si="3">(H36-H$52)/H$53</f>
         <v>-0.12597432517760304</v>
       </c>
       <c r="Z36">
@@ -13390,7 +16164,7 @@
         <v>-0.69223160032217157</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S37:X84" si="4">(B37-B$52)/B$53</f>
+        <f t="shared" ref="S37:X50" si="4">(B37-B$52)/B$53</f>
         <v>-0.65656526629613898</v>
       </c>
       <c r="T37">
@@ -15168,67 +17942,67 @@
         <v>49</v>
       </c>
       <c r="B56" s="1">
-        <f>CORREL($B$2:$B$50,B$2:B$50)</f>
+        <f t="shared" ref="B56:Q56" si="7">CORREL($B$2:$B$50,B$2:B$50)</f>
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <f>CORREL($B$2:$B$50,C$2:C$50)</f>
+        <f t="shared" si="7"/>
         <v>-0.42331768072642167</v>
       </c>
       <c r="D56" s="1">
-        <f>CORREL($B$2:$B$50,D$2:D$50)</f>
+        <f t="shared" si="7"/>
         <v>-0.20035161880544813</v>
       </c>
       <c r="E56" s="1">
-        <f>CORREL($B$2:$B$50,E$2:E$50)</f>
+        <f t="shared" si="7"/>
         <v>0.14719044585060181</v>
       </c>
       <c r="F56" s="1">
-        <f>CORREL($B$2:$B$50,F$2:F$50)</f>
+        <f t="shared" si="7"/>
         <v>-0.16850194187274825</v>
       </c>
       <c r="G56" s="1">
-        <f>CORREL($B$2:$B$50,G$2:G$50)</f>
+        <f t="shared" si="7"/>
         <v>0.29849830265918947</v>
       </c>
       <c r="H56" s="1">
-        <f>CORREL($B$2:$B$50,H$2:H$50)</f>
+        <f t="shared" si="7"/>
         <v>-4.5626362682948021E-2</v>
       </c>
       <c r="I56" s="1">
-        <f>CORREL($B$2:$B$50,I$2:I$50)</f>
+        <f t="shared" si="7"/>
         <v>-0.24901378111770786</v>
       </c>
       <c r="J56" s="1">
-        <f>CORREL($B$2:$B$50,J$2:J$50)</f>
+        <f t="shared" si="7"/>
         <v>-7.8974852294540876E-2</v>
       </c>
       <c r="K56" s="1">
-        <f>CORREL($B$2:$B$50,K$2:K$50)</f>
+        <f t="shared" si="7"/>
         <v>0.39880687917654101</v>
       </c>
       <c r="L56" s="1">
-        <f>CORREL($B$2:$B$50,L$2:L$50)</f>
+        <f t="shared" si="7"/>
         <v>5.1800054177050477E-2</v>
       </c>
       <c r="M56" s="1">
-        <f>CORREL($B$2:$B$50,M$2:M$50)</f>
+        <f t="shared" si="7"/>
         <v>0.48318492316493661</v>
       </c>
       <c r="N56" s="1">
-        <f>CORREL($B$2:$B$50,N$2:N$50)</f>
+        <f t="shared" si="7"/>
         <v>2.5647969047954758E-2</v>
       </c>
       <c r="O56" s="1">
-        <f>CORREL($B$2:$B$50,O$2:O$50)</f>
+        <f t="shared" si="7"/>
         <v>-0.2800295913072407</v>
       </c>
       <c r="P56" s="1">
-        <f>CORREL($B$2:$B$50,P$2:P$50)</f>
+        <f t="shared" si="7"/>
         <v>-9.1004469625716011E-2</v>
       </c>
       <c r="Q56" s="1">
-        <f>CORREL($B$2:$B$50,Q$2:Q$50)</f>
+        <f t="shared" si="7"/>
         <v>0.19112729816026458</v>
       </c>
     </row>
@@ -15245,59 +18019,59 @@
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ref="D57:Q57" si="7">CORREL($C$2:$C$50,D$2:D$50)</f>
+        <f t="shared" ref="D57:Q57" si="8">CORREL($C$2:$C$50,D$2:D$50)</f>
         <v>0.58470966198165075</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9942397908639816E-2</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.8515702649554991E-2</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17736328421394909</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45795606078882689</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3220975619290572E-2</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4587773362878644E-3</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.17436824368141748</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.32939527207850744</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.28233797849085662</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25858124489187662</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.53301087738507702</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.52600153526192472</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13166934255542243</v>
       </c>
     </row>
@@ -15310,63 +18084,63 @@
         <v>-0.20035161880544813</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" ref="C58:Q58" si="8">CORREL($D$2:$D$50,C$2:C$50)</f>
+        <f t="shared" ref="C58:Q58" si="9">CORREL($D$2:$D$50,C$2:C$50)</f>
         <v>0.58470966198165075</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2473198606821593E-2</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.24446116355211395</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.52412207128158983</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58967060745416411</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.14816905495911248</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.23105076606308175</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.9374584365127113E-2</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.60361232645338703</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.15680343495057336</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13326062460832575</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50461923408321396</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.51553052352918816</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.7552895366096321E-2</v>
       </c>
     </row>
@@ -15379,63 +18153,63 @@
         <v>0.14719044585060181</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C59:Q59" si="9">CORREL($E$2:$E$50,C$2:C$50)</f>
+        <f t="shared" ref="C59:Q59" si="10">CORREL($E$2:$E$50,C$2:C$50)</f>
         <v>4.9942397908639816E-2</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2473198606821593E-2</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.60679653955002089</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18165209832530704</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50505101426302934</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.44580724769948049</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.66870643743756053</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.44235881375434993</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34364546282761449</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.41324789741547857</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.34257304674106182</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.68653368403725035</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.67693571793705831</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.70680602582097907</v>
       </c>
     </row>
@@ -15448,63 +18222,63 @@
         <v>-0.16850194187274825</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ref="C60:Q60" si="10">CORREL($F$2:$F$50,C$2:C$50)</f>
+        <f t="shared" ref="C60:Q60" si="11">CORREL($F$2:$F$50,C$2:C$50)</f>
         <v>6.8515702649554991E-2</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.24446116355211395</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.60679653955002089</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.51065043968428747</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.6446932953593107E-2</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66976521963584301</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.83657984084513282</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.2110398687450673</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.53432441912072426</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9774888841497157E-2</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10274225124916289</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.33594612878721469</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.36576528784294327</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.5127457409963363</v>
       </c>
     </row>
@@ -15517,63 +18291,63 @@
         <v>0.29849830265918947</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61:Q61" si="11">CORREL($G$2:$G$50,C$2:C$50)</f>
+        <f t="shared" ref="C61:Q61" si="12">CORREL($G$2:$G$50,C$2:C$50)</f>
         <v>0.17736328421394909</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.52412207128158983</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18165209832530704</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.51065043968428747</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8041191473482201</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.56978649650789759</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.49426211601867442</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.58750808602684357</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.60772157521050907</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.33778464198621755</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.31005635301947626</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.33922220752936272</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.37353572438700633</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10722110009958981</v>
       </c>
     </row>
@@ -15586,63 +18360,63 @@
         <v>-4.5626362682948021E-2</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62:Q62" si="12">CORREL($H$2:$H$50,C$2:C$50)</f>
+        <f t="shared" ref="C62:Q62" si="13">CORREL($H$2:$H$50,C$2:C$50)</f>
         <v>0.45795606078882689</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.58967060745416411</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.50505101426302934</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.6446932953593107E-2</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.8041191473482201</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.15788936129541231</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.9128503584856869E-2</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.52083482843450957</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.343161596340811</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.22658083006545679</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.40173445568442961</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.70876681531250274</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.67467559824410084</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35072779923093556</v>
       </c>
     </row>
@@ -15655,63 +18429,63 @@
         <v>-0.24901378111770786</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" ref="C63:Q63" si="13">CORREL($I$2:$I$50,C$2:C$50)</f>
+        <f t="shared" ref="C63:Q63" si="14">CORREL($I$2:$I$50,C$2:C$50)</f>
         <v>4.3220975619290572E-2</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.14816905495911248</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.44580724769948049</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.66976521963584301</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.56978649650789759</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.15788936129541231</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.87588339500525103</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.15671387453080907</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.52820704515592465</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.36010555930539301</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.14847986650125242</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.26718883059517323</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.24856282371071117</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.31930197010927763</v>
       </c>
     </row>
@@ -15724,63 +18498,63 @@
         <v>-7.8974852294540876E-2</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" ref="C64:Q64" si="14">CORREL($J$2:$J$50,C$2:C$50)</f>
+        <f t="shared" ref="C64:Q64" si="15">CORREL($J$2:$J$50,C$2:C$50)</f>
         <v>3.4587773362878644E-3</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.23105076606308175</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.66870643743756053</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.83657984084513282</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.49426211601867442</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.9128503584856869E-2</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87588339500525103</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.10395413440055722</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.56189826702423762</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.10121416410017942</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-3.9015456036913643E-2</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.32089084369684256</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3244391297974174</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.45528747433795247</v>
       </c>
     </row>
@@ -15793,63 +18567,63 @@
         <v>0.39880687917654101</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:Q65" si="15">CORREL($K$2:$K$50,C$2:C$50)</f>
+        <f t="shared" ref="C65:Q65" si="16">CORREL($K$2:$K$50,C$2:C$50)</f>
         <v>-0.17436824368141748</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.9374584365127113E-2</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.44235881375434993</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.2110398687450673</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.58750808602684357</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52083482843450957</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.15671387453080907</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.10395413440055722</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.14167545165817386</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.53362587820381846</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.47437583974215347</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.27150978326298203</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.32251898690039926</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.40376324192956292</v>
       </c>
     </row>
@@ -15862,63 +18636,63 @@
         <v>5.1800054177050477E-2</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:Q66" si="16">CORREL($L$2:$L$50,C$2:C$50)</f>
+        <f t="shared" ref="C66:Q66" si="17">CORREL($L$2:$L$50,C$2:C$50)</f>
         <v>-0.32939527207850744</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.60361232645338703</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34364546282761449</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.53432441912072426</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.60772157521050907</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.343161596340811</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.52820704515592465</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.56189826702423762</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14167545165817386</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.13249773064179948</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.5940075608427016E-2</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-5.2302882302404805E-2</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.11059449466587067</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26320171122818953</v>
       </c>
     </row>
@@ -15931,63 +18705,63 @@
         <v>0.48318492316493661</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:Q67" si="17">CORREL($M$2:$M$50,C$2:C$50)</f>
+        <f t="shared" ref="C67:Q67" si="18">CORREL($M$2:$M$50,C$2:C$50)</f>
         <v>-0.28233797849085662</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.15680343495057336</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.41324789741547857</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.9774888841497157E-2</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.33778464198621755</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.22658083006545679</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.36010555930539301</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.10121416410017942</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.53362587820381846</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.13249773064179948</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.45647071062624617</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.13430837924241673</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.26713141336193458</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.58114168195174487</v>
       </c>
     </row>
@@ -16000,63 +18774,63 @@
         <v>2.5647969047954758E-2</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ref="C68:Q68" si="18">CORREL($N$2:$N$50,C$2:C$50)</f>
+        <f t="shared" ref="C68:Q68" si="19">CORREL($N$2:$N$50,C$2:C$50)</f>
         <v>0.25858124489187662</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13326062460832575</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.34257304674106182</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10274225124916289</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.31005635301947626</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.40173445568442961</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.14847986650125242</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3.9015456036913643E-2</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.47437583974215347</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.5940075608427016E-2</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.45647071062624617</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.52874599159288282</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.63308875412998133</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.55964357563455025</v>
       </c>
     </row>
@@ -16069,63 +18843,63 @@
         <v>-0.2800295913072407</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:Q69" si="19">CORREL($O$2:$O$50,C$2:C$50)</f>
+        <f t="shared" ref="C69:Q69" si="20">CORREL($O$2:$O$50,C$2:C$50)</f>
         <v>0.53301087738507702</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50461923408321396</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.68653368403725035</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.33594612878721469</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.33922220752936272</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.70876681531250274</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.26718883059517323</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.32089084369684256</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.27150978326298203</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-5.2302882302404805E-2</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.13430837924241673</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52874599159288282</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.8930115671276776</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.56106656181426817</v>
       </c>
     </row>
@@ -16138,63 +18912,63 @@
         <v>-9.1004469625716011E-2</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ref="C70:Q70" si="20">CORREL($P$2:$P$50,C$2:C$50)</f>
+        <f t="shared" ref="C70:Q70" si="21">CORREL($P$2:$P$50,C$2:C$50)</f>
         <v>0.52600153526192472</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.51553052352918816</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.67693571793705831</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.36576528784294327</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.37353572438700633</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.67467559824410084</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.24856282371071117</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.3244391297974174</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.32251898690039926</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.11059449466587067</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.26713141336193458</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.63308875412998133</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.8930115671276776</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.78179906109767972</v>
       </c>
     </row>
@@ -16207,63 +18981,63 @@
         <v>0.19112729816026458</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ref="C71:Q71" si="21">CORREL($Q$2:$Q$50,C$2:C$50)</f>
+        <f t="shared" ref="C71:Q71" si="22">CORREL($Q$2:$Q$50,C$2:C$50)</f>
         <v>0.13166934255542243</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.7552895366096321E-2</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.70680602582097907</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.5127457409963363</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.10722110009958981</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.35072779923093556</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.31930197010927763</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.45528747433795247</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.40376324192956292</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.26320171122818953</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.58114168195174487</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.55964357563455025</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.56106656181426817</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78179906109767972</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
